--- a/files/excelFilesforFigures/Figure1.xlsx
+++ b/files/excelFilesforFigures/Figure1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519860C-A007-4BD5-BABB-85761E059DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5AA4DA-1AF4-440F-80D2-603930C3CB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,19 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1125973868651034"/>
+          <c:y val="3.1439789315152719E-2"/>
+          <c:w val="0.85003997577225932"/>
+          <c:h val="0.8864194185740647"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -535,7 +545,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -910,7 +920,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -1288,7 +1298,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -1744,7 +1754,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -2110,7 +2120,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -2491,7 +2501,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -2844,7 +2854,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -3239,7 +3249,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -3592,7 +3602,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -3942,7 +3952,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -4319,7 +4329,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -4825,7 +4835,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -5185,7 +5195,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -5560,7 +5570,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -6007,7 +6017,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -6421,7 +6431,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -6817,7 +6827,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -7171,7 +7181,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -7521,7 +7531,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -7889,7 +7899,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-7A0D-4124-883E-63F6687CF2D6}"/>
@@ -8093,8 +8103,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3120131201312012E-2"/>
-              <c:y val="8.8591892307846976E-2"/>
+              <c:x val="1.8980935075423262E-2"/>
+              <c:y val="9.1185260047585259E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8181,10 +8191,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86356925639252602"/>
-          <c:y val="1.7219895200562985E-2"/>
-          <c:w val="0.1250992988482672"/>
-          <c:h val="0.93394671821614295"/>
+          <c:x val="0.10701051014911346"/>
+          <c:y val="3.9712786383610442E-2"/>
+          <c:w val="0.873305612530626"/>
+          <c:h val="0.24538305192908758"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8826,10 +8836,10 @@
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9122,7 +9132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/files/excelFilesforFigures/Figure1.xlsx
+++ b/files/excelFilesforFigures/Figure1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5AA4DA-1AF4-440F-80D2-603930C3CB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD44E1E-8A3A-48F0-9189-D0CE7930FABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Time Unit</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t>Tenant 20</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -141,13 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8193,8 +8199,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10701051014911346"/>
           <c:y val="3.9712786383610442E-2"/>
-          <c:w val="0.873305612530626"/>
-          <c:h val="0.24538305192908758"/>
+          <c:w val="0.89298948985088655"/>
+          <c:h val="0.2867255013593582"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9133,12 +9139,12 @@
   <dimension ref="A1:AO178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9202,8 +9208,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -9229,8 +9238,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <f>SUM(B2:U2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -9256,8 +9269,12 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="0">SUM(B3:U3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -9283,8 +9300,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -9310,8 +9331,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -9337,8 +9362,12 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>13</v>
       </c>
@@ -9364,8 +9393,12 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -9391,8 +9424,12 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -9418,8 +9455,12 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>16</v>
       </c>
@@ -9445,8 +9486,12 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -9472,8 +9517,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>18</v>
       </c>
@@ -9499,8 +9548,12 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>19</v>
       </c>
@@ -9526,8 +9579,12 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -9555,8 +9612,12 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>21</v>
       </c>
@@ -9584,8 +9645,12 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>22</v>
       </c>
@@ -9613,8 +9678,12 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -9642,8 +9711,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>24</v>
       </c>
@@ -9669,8 +9742,12 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>25</v>
       </c>
@@ -9698,8 +9775,12 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>26</v>
       </c>
@@ -9727,8 +9808,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>27</v>
       </c>
@@ -9758,8 +9843,12 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>28</v>
       </c>
@@ -9791,8 +9880,12 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>29</v>
       </c>
@@ -9824,8 +9917,12 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>30</v>
       </c>
@@ -9857,8 +9954,12 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -9890,8 +9991,12 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>32</v>
       </c>
@@ -9921,8 +10026,12 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>33</v>
       </c>
@@ -9952,8 +10061,12 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -9985,8 +10098,12 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>35</v>
       </c>
@@ -10016,8 +10133,12 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>36</v>
       </c>
@@ -10049,8 +10170,12 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>37</v>
       </c>
@@ -10080,8 +10205,12 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>38</v>
       </c>
@@ -10111,8 +10240,12 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>39</v>
       </c>
@@ -10142,8 +10275,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>40</v>
       </c>
@@ -10173,8 +10310,12 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41</v>
       </c>
@@ -10202,8 +10343,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42</v>
       </c>
@@ -10231,8 +10376,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43</v>
       </c>
@@ -10260,8 +10409,12 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44</v>
       </c>
@@ -10289,8 +10442,12 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45</v>
       </c>
@@ -10320,8 +10477,12 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>46</v>
       </c>
@@ -10351,8 +10512,12 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -10384,8 +10549,12 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>48</v>
       </c>
@@ -10415,8 +10584,12 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49</v>
       </c>
@@ -10444,8 +10617,12 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>50</v>
       </c>
@@ -10473,8 +10650,12 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>51</v>
       </c>
@@ -10506,8 +10687,12 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>52</v>
       </c>
@@ -10541,8 +10726,12 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>53</v>
       </c>
@@ -10576,8 +10765,12 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>54</v>
       </c>
@@ -10611,8 +10804,12 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>55</v>
       </c>
@@ -10648,8 +10845,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>56</v>
       </c>
@@ -10685,8 +10886,12 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>57</v>
       </c>
@@ -10722,8 +10927,12 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>58</v>
       </c>
@@ -10759,8 +10968,12 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>59</v>
       </c>
@@ -10798,8 +11011,12 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>60</v>
       </c>
@@ -10841,8 +11058,12 @@
         <v>1</v>
       </c>
       <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>61</v>
       </c>
@@ -10884,8 +11105,12 @@
         <v>11</v>
       </c>
       <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>62</v>
       </c>
@@ -10923,8 +11148,12 @@
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>63</v>
       </c>
@@ -10956,8 +11185,12 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>64</v>
       </c>
@@ -10989,8 +11222,12 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>65</v>
       </c>
@@ -11022,8 +11259,12 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>66</v>
       </c>
@@ -11057,8 +11298,12 @@
       <c r="U60" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>67</v>
       </c>
@@ -11092,8 +11337,12 @@
       <c r="U61" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>68</v>
       </c>
@@ -11127,8 +11376,12 @@
       <c r="U62" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>69</v>
       </c>
@@ -11162,8 +11415,12 @@
       <c r="U63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>70</v>
       </c>
@@ -11197,8 +11454,12 @@
       <c r="U64" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>71</v>
       </c>
@@ -11232,8 +11493,12 @@
       <c r="U65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -11267,8 +11532,12 @@
       <c r="U66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>73</v>
       </c>
@@ -11302,8 +11571,12 @@
       <c r="U67" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <f t="shared" ref="V67:V98" si="1">SUM(B67:U67)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>74</v>
       </c>
@@ -11335,8 +11608,12 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>75</v>
       </c>
@@ -11368,8 +11645,12 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>76</v>
       </c>
@@ -11399,8 +11680,12 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>77</v>
       </c>
@@ -11430,8 +11715,12 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>78</v>
       </c>
@@ -11461,8 +11750,12 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>79</v>
       </c>
@@ -11492,8 +11785,12 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>80</v>
       </c>
@@ -11521,8 +11818,12 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>81</v>
       </c>
@@ -11550,8 +11851,12 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>82</v>
       </c>
@@ -11579,8 +11884,12 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>83</v>
       </c>
@@ -11608,8 +11917,12 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>85</v>
       </c>
@@ -11637,8 +11950,12 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>86</v>
       </c>
@@ -11666,8 +11983,12 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>87</v>
       </c>
@@ -11695,8 +12016,12 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -11724,8 +12049,12 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>89</v>
       </c>
@@ -11753,8 +12082,12 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>90</v>
       </c>
@@ -11780,8 +12113,12 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>91</v>
       </c>
@@ -11807,8 +12144,12 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>93</v>
       </c>
@@ -11834,8 +12175,12 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>94</v>
       </c>
@@ -11861,8 +12206,12 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>95</v>
       </c>
@@ -11888,8 +12237,12 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>97</v>
       </c>
@@ -11915,8 +12268,12 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -11942,8 +12299,12 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>99</v>
       </c>
@@ -11969,8 +12330,12 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>100</v>
       </c>
@@ -11996,8 +12361,12 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>107</v>
       </c>
@@ -12023,8 +12392,12 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>108</v>
       </c>
@@ -12050,8 +12423,12 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>109</v>
       </c>
@@ -12077,8 +12454,12 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>110</v>
       </c>
@@ -12104,8 +12485,12 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>112</v>
       </c>
@@ -12131,6 +12516,10 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
+      <c r="V96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -12158,6 +12547,10 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
+      <c r="V97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -12185,6 +12578,10 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
+      <c r="V98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="U99" s="2"/>
